--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="88">
   <si>
     <t>第1周计划看的论文</t>
   </si>
@@ -305,11 +305,31 @@
     <t>Strasdat H , Davison A J , Montiel J M M , et al. Double window optimisation for constant time visual SLAM[C]// IEEE International Conference on Computer Vision, ICCV 2011, Barcelona, Spain, November 6-13, 2011. IEEE, 2011.</t>
   </si>
   <si>
-    <t>开始于2019.04.07，17周之后不按日期计算周数，5篇为一周，可以通过计算实际时间和周报周数计算有多少周没完成目标或超额完成多少周</t>
+    <t>注</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>注</t>
+    <t>Faugeras O D F L , Lustman F . Motion and Structure from Motion in a Piecewise Planar Environment[J]. International Journal of Pattern Recognition and Artificial Intelligence, 1988, 02(3).</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moreno-Noguer F , Lepetit V , Fua P . Accurate Non-Iterative O(n) Solution to the PnP Problem[J]. Proceedings / IEEE International Conference on Computer Vision. IEEE International Conference on Computer Vision, 2007.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arun K S . Least-squares fitting of two 3-D point sets[J]. IEEE Trans. Pattern Anal. Machine Intell. 1987, 9.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hess W , Kohler D , Rapp H , et al. Real-Time Loop Closure in 2D LIDAR SLAM[C]// 2016 IEEE International Conference on Robotics and Automation (ICRA). IEEE, 2016.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang H , Qi J , Miao Y , et al. A New Robot Navigation Algorithm Based on a Double-Layer Ant Algorithm and Trajectory Optimization[J]. IEEE Transactions on Industrial Electronics, 2019, 66(11):8557-8566.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始于2019.04.07，17周之后不按日期计算周数，5篇为一周，可以通过计算实际时间和周报周数计算有多少周没完成目标或超额完成多少周。书籍及代码总结在github账号：https://github.com/yilu-zhang?tab=repositories</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -398,6 +418,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -436,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,10 +518,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,23 +804,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338:C364"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="157" customWidth="1"/>
+    <col min="2" max="2" width="183.625" customWidth="1"/>
     <col min="3" max="3" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" s="18" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1779,39 +1815,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="16.5">
       <c r="A115" s="4">
         <v>1</v>
       </c>
-      <c r="B115" s="13"/>
+      <c r="B115" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="16.5">
       <c r="A116" s="4">
         <v>2</v>
       </c>
-      <c r="B116" s="3"/>
+      <c r="B116" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="16.5">
       <c r="A117" s="4">
         <v>3</v>
       </c>
-      <c r="B117" s="13"/>
+      <c r="B117" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="16.5">
       <c r="A118" s="4">
         <v>4</v>
       </c>
-      <c r="B118" s="13"/>
+      <c r="B118" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="16.5">
       <c r="A119" s="4">
         <v>5</v>
       </c>
-      <c r="B119" s="3"/>
+      <c r="B119" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C119" s="3"/>
     </row>
     <row r="121" spans="1:3">

--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -230,9 +230,6 @@
     <t>第20周计划看的论文</t>
   </si>
   <si>
-    <t>赵洋, 刘国良, 田国会, et al. 基于深度学习的视觉SLAM综述[J]. 机器人, 2017(6).</t>
-  </si>
-  <si>
     <t>Ruihao L , Sen W , Dongbing G . Ongoing Evolution of Visual SLAM from Geometry to Deep Learning: Challenges and Opportunities[J]. Cognitive Computation, 2018.</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>Mapping Technology in Visual SLAM: A Review</t>
   </si>
   <si>
-    <t>Tateno K , Tombari F , Laina I , et al. [IEEE 2017 IEEE Conference on Computer Vision and Pattern Recognition (CVPR) - Honolulu, HI (2017.7.21-2017.7.26)] 2017 IEEE Conference on Computer Vision and Pattern Recognition (CVPR) - CNN-SLAM: Real-Time Dense Monocular SLAM with Learned Depth Prediction[J]. 2017:6565-6574.</t>
-  </si>
-  <si>
     <t>Cadena C , Carlone L , Carrillo H , et al. Past, Present, and Future of Simultaneous Localization and Mapping: Toward the Robust-Perception Age[J]. IEEE Transactions on Robotics, 2016, 32(6):1309-1332.</t>
   </si>
   <si>
@@ -272,19 +266,10 @@
     <t>Calonder M , Lepetit V , Strecha C , et al. BRIEF: Binary Robust Independent Elementary Features[C]// Computer Vision - ECCV 2010, 11th European Conference on Computer Vision, Heraklion, Crete, Greece, September 5-11, 2010, Proceedings, Part IV. 2010.</t>
   </si>
   <si>
-    <t>Rublee E , Rabaud V , Konolige K , et al. ORB: An efficient alternative to SIFT or SURF[C]// 2011 International Conference on Computer Vision. IEEE, 2012.</t>
-  </si>
-  <si>
     <t>Galvez-Lo?Pez D , Tardos J D . Bags of Binary Words for Fast Place Recognition in Image Sequences[J]. IEEE Transactions on Robotics, 2012, 28(5):1188-1197.</t>
   </si>
   <si>
     <t>Mur-Artal R , Montiel J M M , Tardos J D . ORB-SLAM: a Versatile and Accurate Monocular SLAM System[J]. IEEE Transactions on Robotics, 2015, 31(5):1147-1163.</t>
-  </si>
-  <si>
-    <t>Mur-Artal R , Tardos J D . ORB-SLAM2: An Open-Source SLAM System for Monocular, Stereo, and RGB-D Cameras[J]. IEEE Transactions on Robotics, 2017:1-8.</t>
-  </si>
-  <si>
-    <t>Mur-Artal R, Montiel J M M, Tardos J D. ORB-SLAM: a Versatile and Accurate Monocular SLAM System[J]. IEEE Transactions on Robotics, 2015, 31(5):1-17.</t>
   </si>
   <si>
     <t>Raúl Mur-Artal, Juan D Tardós. Fast Relocalisation and Loop Closing in Keyframe-Based SLAM[C]// IEEE International Conference on Robotics &amp; Automation. IEEE, 2014:846-853.</t>
@@ -330,6 +315,138 @@
   </si>
   <si>
     <t>开始于2019.04.07，17周之后不按日期计算周数，5篇为一周，可以通过计算实际时间和周报周数计算有多少周没完成目标或超额完成多少周。书籍及代码总结在github账号：https://github.com/yilu-zhang?tab=repositories</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵洋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘国良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>田国会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于深度学习的视觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>SLAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[J]. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机器人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2017(6).</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tateno K , Tombari F , Laina I , et al. [IEEE 2017 IEEE Conference on Computer Vision and Pattern Recognition (CVPR) - Honolulu, HI (2017.7.21-2017.7.26)] 2017 IEEE Conference on Computer Vision and Pattern Recognition (CVPR) - CNN-SLAM: Real-Time Dense Monocular SLAM with Learned Depth Prediction[J]. 2017:6565-6574.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rublee E , Rabaud V , Konolige K , et al. ORB: An efficient alternative to SIFT or SURF[C]// 2011 International Conference on Computer Vision. IEEE, 2012.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mur-Artal R , Juan D. Tardós. ORB-SLAM: Tracking and Mapping Recognizable Features[C]// Workshop on Multi VIew Geometry in RObotics (MVIGRO) - RSS 2014. 2014.</t>
+  </si>
+  <si>
+    <t>Mur-Artal R , Tardos J D . ORB-SLAM2: An Open-Source SLAM System for Monocular, Stereo, and RGB-D Cameras[J]. IEEE Transactions on Robotics, 2017:1-8.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -428,6 +545,13 @@
     <font>
       <sz val="20"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -804,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -817,10 +941,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1495,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C80" s="6">
         <v>1</v>
@@ -1506,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="6">
         <v>1</v>
@@ -1517,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C82" s="6">
         <v>1</v>
@@ -1528,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C83" s="6">
         <v>1</v>
@@ -1556,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C87" s="6">
         <v>1</v>
@@ -1567,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C88" s="6">
         <v>1</v>
@@ -1578,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C89" s="6">
         <v>1</v>
@@ -1589,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C90" s="6">
         <v>1</v>
@@ -1600,7 +1724,7 @@
         <v>5</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C91" s="6">
         <v>1</v>
@@ -1622,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C94" s="6">
         <v>1</v>
@@ -1633,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C95" s="6">
         <v>1</v>
@@ -1644,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C96" s="6">
         <v>1</v>
@@ -1655,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -1666,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C98" s="6">
         <v>1</v>
@@ -1688,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C101" s="6">
         <v>1</v>
@@ -1699,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C102" s="6">
         <v>1</v>
@@ -1710,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C103" s="6">
         <v>1</v>
@@ -1721,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C104" s="6">
         <v>1</v>
@@ -1732,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C105" s="6">
         <v>1</v>
@@ -1754,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C108" s="6">
         <v>1</v>
@@ -1765,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C109" s="6">
         <v>1</v>
@@ -1776,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C110" s="6">
         <v>1</v>
@@ -1787,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C111" s="6">
         <v>1</v>
@@ -1798,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C112" s="6">
         <v>1</v>
@@ -1820,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C115" s="3"/>
     </row>
@@ -1829,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C116" s="3"/>
     </row>
@@ -1838,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -1847,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C118" s="3"/>
     </row>
@@ -1856,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C119" s="3"/>
     </row>

--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
   <si>
     <t>第1周计划看的论文</t>
   </si>
@@ -448,6 +448,12 @@
   <si>
     <t>Mur-Artal R , Tardos J D . ORB-SLAM2: An Open-Source SLAM System for Monocular, Stereo, and RGB-D Cameras[J]. IEEE Transactions on Robotics, 2017:1-8.</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grisetti G , Stachniss C , Burgard W . Improving Grid-based SLAM with Rao-Blackwellized Particle Filters By Adaptive Proposals and Selective Resampling[C]// Proceedings of the 2005 IEEE International Conference on Robotics and Automation, ICRA 2005, April 18-22, 2005, Barcelona, Spain. IEEE, 2005.</t>
+  </si>
+  <si>
+    <t>Grisetti G , Stachniss C , Burgard W . Improved Techniques for Grid Mapping With Rao-Blackwellized Particle Filters[J]. IEEE Transactions on Robotics, 2007, 23(1):34-46.</t>
   </si>
 </sst>
 </file>
@@ -928,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="B109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1999,14 +2005,18 @@
       <c r="A122" s="4">
         <v>1</v>
       </c>
-      <c r="B122" s="13"/>
+      <c r="B122" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="4">
         <v>2</v>
       </c>
-      <c r="B123" s="3"/>
+      <c r="B123" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3">

--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>第5周计划看的论文</t>
-  </si>
-  <si>
-    <t>Multi-Target Embodied Question Answering</t>
   </si>
   <si>
     <t>Zhu Y , Lim J J , Fei-Fei L . Knowledge Acquisition for Visual Question Answering via Iterative Querying[C]// 2017 IEEE Conference on Computer Vision and Pattern Recognition (CVPR). IEEE Computer Society, 2017.</t>
@@ -454,6 +451,10 @@
   </si>
   <si>
     <t>Grisetti G , Stachniss C , Burgard W . Improved Techniques for Grid Mapping With Rao-Blackwellized Particle Filters[J]. IEEE Transactions on Robotics, 2007, 23(1):34-46.</t>
+  </si>
+  <si>
+    <t>Yu L , Chen X , Gkioxari G , et al. Multi-Target Embodied Question Answering[J]. 2019.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -934,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -947,10 +948,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1209,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -1220,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -1231,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -1253,7 +1254,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
@@ -1267,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -1278,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -1289,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -1311,7 +1312,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -1325,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="6">
         <v>1</v>
@@ -1336,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
@@ -1347,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -1358,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -1369,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -1380,7 +1381,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
@@ -1394,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
@@ -1405,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="6">
         <v>1</v>
@@ -1416,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -1438,7 +1439,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1</v>
@@ -1452,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="6">
         <v>0.8</v>
@@ -1488,7 +1489,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1</v>
@@ -1502,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="6">
         <v>1</v>
@@ -1513,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="6">
         <v>1</v>
@@ -1524,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="6">
         <v>1</v>
@@ -1535,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="6">
         <v>1</v>
@@ -1549,7 +1550,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>1</v>
@@ -1563,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" s="6">
         <v>1</v>
@@ -1574,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="6">
         <v>1</v>
@@ -1585,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" s="6">
         <v>1</v>
@@ -1596,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
@@ -1611,7 +1612,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1</v>
@@ -1625,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="6">
         <v>1</v>
@@ -1636,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="6">
         <v>1</v>
@@ -1647,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="6">
         <v>1</v>
@@ -1658,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C83" s="6">
         <v>1</v>
@@ -1672,7 +1673,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
@@ -1686,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" s="6">
         <v>1</v>
@@ -1697,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="6">
         <v>1</v>
@@ -1708,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C89" s="6">
         <v>1</v>
@@ -1719,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C90" s="6">
         <v>1</v>
@@ -1730,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C91" s="6">
         <v>1</v>
@@ -1738,7 +1739,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>1</v>
@@ -1752,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C94" s="6">
         <v>1</v>
@@ -1763,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C95" s="6">
         <v>1</v>
@@ -1774,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C96" s="6">
         <v>1</v>
@@ -1785,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -1796,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C98" s="6">
         <v>1</v>
@@ -1804,7 +1805,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1</v>
@@ -1818,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C101" s="6">
         <v>1</v>
@@ -1829,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C102" s="6">
         <v>1</v>
@@ -1840,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103" s="6">
         <v>1</v>
@@ -1851,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C104" s="6">
         <v>1</v>
@@ -1862,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C105" s="6">
         <v>1</v>
@@ -1870,7 +1871,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -1884,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C108" s="6">
         <v>1</v>
@@ -1895,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C109" s="6">
         <v>1</v>
@@ -1906,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C110" s="6">
         <v>1</v>
@@ -1917,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C111" s="6">
         <v>1</v>
@@ -1928,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C112" s="6">
         <v>1</v>
@@ -1936,7 +1937,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>1</v>
@@ -1950,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C115" s="3"/>
     </row>
@@ -1959,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C116" s="3"/>
     </row>
@@ -1968,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -1977,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C118" s="3"/>
     </row>
@@ -1986,13 +1987,13 @@
         <v>5</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>1</v>
@@ -2006,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C122" s="3"/>
     </row>
@@ -2015,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C123" s="3"/>
     </row>
@@ -2042,7 +2043,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>1</v>
@@ -2088,7 +2089,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
@@ -2134,7 +2135,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -2180,7 +2181,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>1</v>
@@ -2226,7 +2227,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>1</v>
@@ -2272,7 +2273,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>1</v>
@@ -2323,7 +2324,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>1</v>
@@ -2369,7 +2370,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>1</v>
@@ -2415,7 +2416,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>1</v>
@@ -2461,7 +2462,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>1</v>
@@ -2512,7 +2513,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>1</v>
@@ -2558,7 +2559,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>1</v>
@@ -2604,7 +2605,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>1</v>
@@ -2650,7 +2651,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>1</v>
@@ -2701,7 +2702,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>1</v>
@@ -2747,7 +2748,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>1</v>
@@ -2793,7 +2794,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>1</v>
@@ -2839,7 +2840,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>1</v>
@@ -2890,7 +2891,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>1</v>
@@ -2936,7 +2937,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>1</v>
@@ -2982,7 +2983,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>1</v>
@@ -3028,7 +3029,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>1</v>
@@ -3079,7 +3080,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>1</v>
@@ -3125,7 +3126,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>1</v>
@@ -3171,7 +3172,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>1</v>
@@ -3217,7 +3218,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>1</v>
@@ -3268,7 +3269,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>1</v>
@@ -3314,7 +3315,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>1</v>
@@ -3360,7 +3361,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>1</v>
@@ -3406,7 +3407,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>1</v>
@@ -3452,7 +3453,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>1</v>
@@ -3498,7 +3499,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>1</v>
@@ -3544,7 +3545,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>1</v>
@@ -3590,7 +3591,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1</v>

--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -277,42 +277,42 @@
   <si>
     <t>Closed-form solution of absolute orientation using uni t
 quaternions</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>g2o: A General Framework for Graph Optimization</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Strasdat H , Davison A J , Montiel J M M , et al. Double window optimisation for constant time visual SLAM[C]// IEEE International Conference on Computer Vision, ICCV 2011, Barcelona, Spain, November 6-13, 2011. IEEE, 2011.</t>
   </si>
   <si>
     <t>注</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Faugeras O D F L , Lustman F . Motion and Structure from Motion in a Piecewise Planar Environment[J]. International Journal of Pattern Recognition and Artificial Intelligence, 1988, 02(3).</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Moreno-Noguer F , Lepetit V , Fua P . Accurate Non-Iterative O(n) Solution to the PnP Problem[J]. Proceedings / IEEE International Conference on Computer Vision. IEEE International Conference on Computer Vision, 2007.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Arun K S . Least-squares fitting of two 3-D point sets[J]. IEEE Trans. Pattern Anal. Machine Intell. 1987, 9.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Hess W , Kohler D , Rapp H , et al. Real-Time Loop Closure in 2D LIDAR SLAM[C]// 2016 IEEE International Conference on Robotics and Automation (ICRA). IEEE, 2016.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Yang H , Qi J , Miao Y , et al. A New Robot Navigation Algorithm Based on a Double-Layer Ant Algorithm and Trajectory Optimization[J]. IEEE Transactions on Industrial Electronics, 2019, 66(11):8557-8566.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>开始于2019.04.07，17周之后不按日期计算周数，5篇为一周，可以通过计算实际时间和周报周数计算有多少周没完成目标或超额完成多少周。书籍及代码总结在github账号：https://github.com/yilu-zhang?tab=repositories</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,22 +429,22 @@
       </rPr>
       <t>, 2017(6).</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Tateno K , Tombari F , Laina I , et al. [IEEE 2017 IEEE Conference on Computer Vision and Pattern Recognition (CVPR) - Honolulu, HI (2017.7.21-2017.7.26)] 2017 IEEE Conference on Computer Vision and Pattern Recognition (CVPR) - CNN-SLAM: Real-Time Dense Monocular SLAM with Learned Depth Prediction[J]. 2017:6565-6574.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Rublee E , Rabaud V , Konolige K , et al. ORB: An efficient alternative to SIFT or SURF[C]// 2011 International Conference on Computer Vision. IEEE, 2012.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Mur-Artal R , Juan D. Tardós. ORB-SLAM: Tracking and Mapping Recognizable Features[C]// Workshop on Multi VIew Geometry in RObotics (MVIGRO) - RSS 2014. 2014.</t>
   </si>
   <si>
     <t>Mur-Artal R , Tardos J D . ORB-SLAM2: An Open-Source SLAM System for Monocular, Stereo, and RGB-D Cameras[J]. IEEE Transactions on Robotics, 2017:1-8.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Grisetti G , Stachniss C , Burgard W . Improving Grid-based SLAM with Rao-Blackwellized Particle Filters By Adaptive Proposals and Selective Resampling[C]// Proceedings of the 2005 IEEE International Conference on Robotics and Automation, ICRA 2005, April 18-22, 2005, Barcelona, Spain. IEEE, 2005.</t>
@@ -454,14 +454,14 @@
   </si>
   <si>
     <t>Yu L , Chen X , Gkioxari G , et al. Multi-Target Embodied Question Answering[J]. 2019.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -492,12 +492,6 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="LMSans10-Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -600,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,13 +628,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -649,13 +640,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -946,11 +937,11 @@
     <col min="3" max="3" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" s="17" customFormat="1" ht="42" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1064,11 +1055,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6">
@@ -1076,7 +1067,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75">
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
@@ -1133,7 +1124,7 @@
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="6"/>
     </row>
     <row r="23" spans="1:3">
@@ -1249,7 +1240,7 @@
       <c r="A35" s="4">
         <v>5</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="6"/>
     </row>
     <row r="37" spans="1:3">
@@ -1394,7 +1385,7 @@
       <c r="A52" s="4">
         <v>1</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="6">
@@ -1405,7 +1396,7 @@
       <c r="A53" s="4">
         <v>2</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C53" s="6">
@@ -1416,7 +1407,7 @@
       <c r="A54" s="4">
         <v>3</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="6">
@@ -1452,7 +1443,7 @@
       <c r="A59" s="4">
         <v>1</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="6">
@@ -1464,28 +1455,28 @@
         <v>2</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="16.5">
       <c r="A61" s="4">
         <v>3</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="16.5">
       <c r="A62" s="4">
         <v>4</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:3" ht="16.5">
       <c r="A63" s="4">
         <v>5</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
@@ -1502,7 +1493,7 @@
       <c r="A66" s="4">
         <v>1</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="6">
@@ -1513,7 +1504,7 @@
       <c r="A67" s="4">
         <v>2</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C67" s="6">
@@ -1524,7 +1515,7 @@
       <c r="A68" s="4">
         <v>3</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C68" s="6">
@@ -1535,7 +1526,7 @@
       <c r="A69" s="4">
         <v>4</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="6">
@@ -1546,7 +1537,7 @@
       <c r="A70" s="4">
         <v>5</v>
       </c>
-      <c r="C70" s="12"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
@@ -1563,7 +1554,7 @@
       <c r="A73" s="4">
         <v>1</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C73" s="6">
@@ -1574,7 +1565,7 @@
       <c r="A74" s="4">
         <v>2</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C74" s="6">
@@ -1585,7 +1576,7 @@
       <c r="A75" s="4">
         <v>3</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C75" s="6">
@@ -1596,7 +1587,7 @@
       <c r="A76" s="4">
         <v>4</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C76" s="6">
@@ -1607,8 +1598,13 @@
       <c r="A77" s="4">
         <v>5</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78">
+        <v>35</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
@@ -1625,7 +1621,7 @@
       <c r="A80" s="4">
         <v>1</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="6">
@@ -1636,7 +1632,7 @@
       <c r="A81" s="4">
         <v>2</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C81" s="6">
@@ -1647,7 +1643,7 @@
       <c r="A82" s="4">
         <v>3</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C82" s="6">
@@ -1658,7 +1654,7 @@
       <c r="A83" s="4">
         <v>4</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C83" s="6">
@@ -1669,7 +1665,7 @@
       <c r="A84" s="4">
         <v>5</v>
       </c>
-      <c r="C84" s="12"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
@@ -1686,7 +1682,7 @@
       <c r="A87" s="4">
         <v>1</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="6">
@@ -1697,7 +1693,7 @@
       <c r="A88" s="4">
         <v>2</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="6">
@@ -1708,7 +1704,7 @@
       <c r="A89" s="4">
         <v>3</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C89" s="6">
@@ -1719,7 +1715,7 @@
       <c r="A90" s="4">
         <v>4</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C90" s="6">
@@ -1730,7 +1726,7 @@
       <c r="A91" s="4">
         <v>5</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C91" s="6">
@@ -1752,7 +1748,7 @@
       <c r="A94" s="4">
         <v>1</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C94" s="6">
@@ -1763,7 +1759,7 @@
       <c r="A95" s="4">
         <v>2</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C95" s="6">
@@ -1774,7 +1770,7 @@
       <c r="A96" s="4">
         <v>3</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C96" s="6">
@@ -1785,7 +1781,7 @@
       <c r="A97" s="4">
         <v>4</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C97" s="6">
@@ -1796,7 +1792,7 @@
       <c r="A98" s="4">
         <v>5</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C98" s="6">
@@ -1818,7 +1814,7 @@
       <c r="A101" s="4">
         <v>1</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C101" s="6">
@@ -1829,7 +1825,7 @@
       <c r="A102" s="4">
         <v>2</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C102" s="6">
@@ -1840,7 +1836,7 @@
       <c r="A103" s="4">
         <v>3</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C103" s="6">
@@ -1851,7 +1847,7 @@
       <c r="A104" s="4">
         <v>4</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C104" s="6">
@@ -1862,7 +1858,7 @@
       <c r="A105" s="4">
         <v>5</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C105" s="6">
@@ -1884,7 +1880,7 @@
       <c r="A108" s="4">
         <v>1</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C108" s="6">
@@ -1895,7 +1891,7 @@
       <c r="A109" s="4">
         <v>2</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C109" s="6">
@@ -1906,7 +1902,7 @@
       <c r="A110" s="4">
         <v>3</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C110" s="6">
@@ -1917,7 +1913,7 @@
       <c r="A111" s="4">
         <v>4</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C111" s="6">
@@ -1928,7 +1924,7 @@
       <c r="A112" s="4">
         <v>5</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C112" s="6">
@@ -1950,7 +1946,7 @@
       <c r="A115" s="4">
         <v>1</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C115" s="3"/>
@@ -1959,7 +1955,7 @@
       <c r="A116" s="4">
         <v>2</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C116" s="3"/>
@@ -1968,7 +1964,7 @@
       <c r="A117" s="4">
         <v>3</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C117" s="3"/>
@@ -1977,7 +1973,7 @@
       <c r="A118" s="4">
         <v>4</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C118" s="3"/>
@@ -1986,7 +1982,7 @@
       <c r="A119" s="4">
         <v>5</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C119" s="3"/>
@@ -2006,7 +2002,7 @@
       <c r="A122" s="4">
         <v>1</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C122" s="3"/>
@@ -2024,14 +2020,14 @@
       <c r="A124" s="4">
         <v>3</v>
       </c>
-      <c r="B124" s="13"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="4">
         <v>4</v>
       </c>
-      <c r="B125" s="13"/>
+      <c r="B125" s="12"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3">
@@ -2056,7 +2052,7 @@
       <c r="A129" s="4">
         <v>1</v>
       </c>
-      <c r="B129" s="13"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3">
@@ -2070,14 +2066,14 @@
       <c r="A131" s="4">
         <v>3</v>
       </c>
-      <c r="B131" s="13"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4">
         <v>4</v>
       </c>
-      <c r="B132" s="13"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3">
@@ -2102,7 +2098,7 @@
       <c r="A136" s="4">
         <v>1</v>
       </c>
-      <c r="B136" s="13"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3">
@@ -2116,14 +2112,14 @@
       <c r="A138" s="4">
         <v>3</v>
       </c>
-      <c r="B138" s="13"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="4">
         <v>4</v>
       </c>
-      <c r="B139" s="13"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3">
@@ -2148,7 +2144,7 @@
       <c r="A143" s="4">
         <v>1</v>
       </c>
-      <c r="B143" s="13"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3">
@@ -2162,14 +2158,14 @@
       <c r="A145" s="4">
         <v>3</v>
       </c>
-      <c r="B145" s="13"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="4">
         <v>4</v>
       </c>
-      <c r="B146" s="13"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3">
@@ -2194,7 +2190,7 @@
       <c r="A150" s="4">
         <v>1</v>
       </c>
-      <c r="B150" s="13"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3">
@@ -2208,14 +2204,14 @@
       <c r="A152" s="4">
         <v>3</v>
       </c>
-      <c r="B152" s="13"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="4">
         <v>4</v>
       </c>
-      <c r="B153" s="13"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3">
@@ -2240,7 +2236,7 @@
       <c r="A157" s="4">
         <v>1</v>
       </c>
-      <c r="B157" s="13"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3">
@@ -2254,14 +2250,14 @@
       <c r="A159" s="4">
         <v>3</v>
       </c>
-      <c r="B159" s="13"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="4">
         <v>4</v>
       </c>
-      <c r="B160" s="13"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3">
@@ -2286,7 +2282,7 @@
       <c r="A164" s="4">
         <v>1</v>
       </c>
-      <c r="B164" s="13"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3">
@@ -2300,14 +2296,14 @@
       <c r="A166" s="4">
         <v>3</v>
       </c>
-      <c r="B166" s="13"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="4">
         <v>4</v>
       </c>
-      <c r="B167" s="13"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3">
@@ -2318,9 +2314,9 @@
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="15"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
+      <c r="A169" s="14"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
@@ -2337,7 +2333,7 @@
       <c r="A171" s="4">
         <v>1</v>
       </c>
-      <c r="B171" s="13"/>
+      <c r="B171" s="12"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3">
@@ -2351,14 +2347,14 @@
       <c r="A173" s="4">
         <v>3</v>
       </c>
-      <c r="B173" s="13"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="4">
         <v>4</v>
       </c>
-      <c r="B174" s="13"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3">
@@ -2383,7 +2379,7 @@
       <c r="A178" s="4">
         <v>1</v>
       </c>
-      <c r="B178" s="13"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3">
@@ -2397,14 +2393,14 @@
       <c r="A180" s="4">
         <v>3</v>
       </c>
-      <c r="B180" s="13"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="4">
         <v>4</v>
       </c>
-      <c r="B181" s="13"/>
+      <c r="B181" s="12"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3">
@@ -2429,7 +2425,7 @@
       <c r="A185" s="4">
         <v>1</v>
       </c>
-      <c r="B185" s="13"/>
+      <c r="B185" s="12"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3">
@@ -2443,14 +2439,14 @@
       <c r="A187" s="4">
         <v>3</v>
       </c>
-      <c r="B187" s="13"/>
+      <c r="B187" s="12"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="4">
         <v>4</v>
       </c>
-      <c r="B188" s="13"/>
+      <c r="B188" s="12"/>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3">
@@ -2475,7 +2471,7 @@
       <c r="A192" s="4">
         <v>1</v>
       </c>
-      <c r="B192" s="13"/>
+      <c r="B192" s="12"/>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3">
@@ -2489,14 +2485,14 @@
       <c r="A194" s="4">
         <v>3</v>
       </c>
-      <c r="B194" s="13"/>
+      <c r="B194" s="12"/>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="4">
         <v>4</v>
       </c>
-      <c r="B195" s="13"/>
+      <c r="B195" s="12"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3">
@@ -2507,9 +2503,9 @@
       <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="15"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="14"/>
+      <c r="A197" s="14"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
@@ -2526,7 +2522,7 @@
       <c r="A199" s="4">
         <v>1</v>
       </c>
-      <c r="B199" s="13"/>
+      <c r="B199" s="12"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3">
@@ -2540,14 +2536,14 @@
       <c r="A201" s="4">
         <v>3</v>
       </c>
-      <c r="B201" s="13"/>
+      <c r="B201" s="12"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="4">
         <v>4</v>
       </c>
-      <c r="B202" s="13"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3">
@@ -2572,7 +2568,7 @@
       <c r="A206" s="4">
         <v>1</v>
       </c>
-      <c r="B206" s="13"/>
+      <c r="B206" s="12"/>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3">
@@ -2586,14 +2582,14 @@
       <c r="A208" s="4">
         <v>3</v>
       </c>
-      <c r="B208" s="13"/>
+      <c r="B208" s="12"/>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="4">
         <v>4</v>
       </c>
-      <c r="B209" s="13"/>
+      <c r="B209" s="12"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3">
@@ -2618,7 +2614,7 @@
       <c r="A213" s="4">
         <v>1</v>
       </c>
-      <c r="B213" s="13"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3">
@@ -2632,14 +2628,14 @@
       <c r="A215" s="4">
         <v>3</v>
       </c>
-      <c r="B215" s="13"/>
+      <c r="B215" s="12"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="4">
         <v>4</v>
       </c>
-      <c r="B216" s="13"/>
+      <c r="B216" s="12"/>
       <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3">
@@ -2664,7 +2660,7 @@
       <c r="A220" s="4">
         <v>1</v>
       </c>
-      <c r="B220" s="13"/>
+      <c r="B220" s="12"/>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3">
@@ -2678,14 +2674,14 @@
       <c r="A222" s="4">
         <v>3</v>
       </c>
-      <c r="B222" s="13"/>
+      <c r="B222" s="12"/>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="4">
         <v>4</v>
       </c>
-      <c r="B223" s="13"/>
+      <c r="B223" s="12"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3">
@@ -2696,9 +2692,9 @@
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="15"/>
-      <c r="B225" s="14"/>
-      <c r="C225" s="14"/>
+      <c r="A225" s="14"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
@@ -2715,7 +2711,7 @@
       <c r="A227" s="4">
         <v>1</v>
       </c>
-      <c r="B227" s="13"/>
+      <c r="B227" s="12"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3">
@@ -2729,14 +2725,14 @@
       <c r="A229" s="4">
         <v>3</v>
       </c>
-      <c r="B229" s="13"/>
+      <c r="B229" s="12"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="4">
         <v>4</v>
       </c>
-      <c r="B230" s="13"/>
+      <c r="B230" s="12"/>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3">
@@ -2761,7 +2757,7 @@
       <c r="A234" s="4">
         <v>1</v>
       </c>
-      <c r="B234" s="13"/>
+      <c r="B234" s="12"/>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3">
@@ -2775,14 +2771,14 @@
       <c r="A236" s="4">
         <v>3</v>
       </c>
-      <c r="B236" s="13"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="4">
         <v>4</v>
       </c>
-      <c r="B237" s="13"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3">
@@ -2807,7 +2803,7 @@
       <c r="A241" s="4">
         <v>1</v>
       </c>
-      <c r="B241" s="13"/>
+      <c r="B241" s="12"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3">
@@ -2821,14 +2817,14 @@
       <c r="A243" s="4">
         <v>3</v>
       </c>
-      <c r="B243" s="13"/>
+      <c r="B243" s="12"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="4">
         <v>4</v>
       </c>
-      <c r="B244" s="13"/>
+      <c r="B244" s="12"/>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3">
@@ -2853,7 +2849,7 @@
       <c r="A248" s="4">
         <v>1</v>
       </c>
-      <c r="B248" s="13"/>
+      <c r="B248" s="12"/>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3">
@@ -2867,14 +2863,14 @@
       <c r="A250" s="4">
         <v>3</v>
       </c>
-      <c r="B250" s="13"/>
+      <c r="B250" s="12"/>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="4">
         <v>4</v>
       </c>
-      <c r="B251" s="13"/>
+      <c r="B251" s="12"/>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3">
@@ -2885,9 +2881,9 @@
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="15"/>
-      <c r="B253" s="14"/>
-      <c r="C253" s="14"/>
+      <c r="A253" s="14"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
@@ -2904,7 +2900,7 @@
       <c r="A255" s="4">
         <v>1</v>
       </c>
-      <c r="B255" s="13"/>
+      <c r="B255" s="12"/>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3">
@@ -2918,14 +2914,14 @@
       <c r="A257" s="4">
         <v>3</v>
       </c>
-      <c r="B257" s="13"/>
+      <c r="B257" s="12"/>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="4">
         <v>4</v>
       </c>
-      <c r="B258" s="13"/>
+      <c r="B258" s="12"/>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3">
@@ -2950,7 +2946,7 @@
       <c r="A262" s="4">
         <v>1</v>
       </c>
-      <c r="B262" s="13"/>
+      <c r="B262" s="12"/>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3">
@@ -2964,14 +2960,14 @@
       <c r="A264" s="4">
         <v>3</v>
       </c>
-      <c r="B264" s="13"/>
+      <c r="B264" s="12"/>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="4">
         <v>4</v>
       </c>
-      <c r="B265" s="13"/>
+      <c r="B265" s="12"/>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3">
@@ -2996,7 +2992,7 @@
       <c r="A269" s="4">
         <v>1</v>
       </c>
-      <c r="B269" s="13"/>
+      <c r="B269" s="12"/>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3">
@@ -3010,14 +3006,14 @@
       <c r="A271" s="4">
         <v>3</v>
       </c>
-      <c r="B271" s="13"/>
+      <c r="B271" s="12"/>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="4">
         <v>4</v>
       </c>
-      <c r="B272" s="13"/>
+      <c r="B272" s="12"/>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3">
@@ -3042,7 +3038,7 @@
       <c r="A276" s="4">
         <v>1</v>
       </c>
-      <c r="B276" s="13"/>
+      <c r="B276" s="12"/>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3">
@@ -3056,14 +3052,14 @@
       <c r="A278" s="4">
         <v>3</v>
       </c>
-      <c r="B278" s="13"/>
+      <c r="B278" s="12"/>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="4">
         <v>4</v>
       </c>
-      <c r="B279" s="13"/>
+      <c r="B279" s="12"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3">
@@ -3074,9 +3070,9 @@
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="15"/>
-      <c r="B281" s="14"/>
-      <c r="C281" s="14"/>
+      <c r="A281" s="14"/>
+      <c r="B281" s="13"/>
+      <c r="C281" s="13"/>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
@@ -3093,7 +3089,7 @@
       <c r="A283" s="4">
         <v>1</v>
       </c>
-      <c r="B283" s="13"/>
+      <c r="B283" s="12"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3">
@@ -3107,14 +3103,14 @@
       <c r="A285" s="4">
         <v>3</v>
       </c>
-      <c r="B285" s="13"/>
+      <c r="B285" s="12"/>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="4">
         <v>4</v>
       </c>
-      <c r="B286" s="13"/>
+      <c r="B286" s="12"/>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3">
@@ -3139,7 +3135,7 @@
       <c r="A290" s="4">
         <v>1</v>
       </c>
-      <c r="B290" s="13"/>
+      <c r="B290" s="12"/>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3">
@@ -3153,14 +3149,14 @@
       <c r="A292" s="4">
         <v>3</v>
       </c>
-      <c r="B292" s="13"/>
+      <c r="B292" s="12"/>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="4">
         <v>4</v>
       </c>
-      <c r="B293" s="13"/>
+      <c r="B293" s="12"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3">
@@ -3185,7 +3181,7 @@
       <c r="A297" s="4">
         <v>1</v>
       </c>
-      <c r="B297" s="13"/>
+      <c r="B297" s="12"/>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3">
@@ -3199,14 +3195,14 @@
       <c r="A299" s="4">
         <v>3</v>
       </c>
-      <c r="B299" s="13"/>
+      <c r="B299" s="12"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="4">
         <v>4</v>
       </c>
-      <c r="B300" s="13"/>
+      <c r="B300" s="12"/>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3">
@@ -3231,7 +3227,7 @@
       <c r="A304" s="4">
         <v>1</v>
       </c>
-      <c r="B304" s="13"/>
+      <c r="B304" s="12"/>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3">
@@ -3245,14 +3241,14 @@
       <c r="A306" s="4">
         <v>3</v>
       </c>
-      <c r="B306" s="13"/>
+      <c r="B306" s="12"/>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="4">
         <v>4</v>
       </c>
-      <c r="B307" s="13"/>
+      <c r="B307" s="12"/>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3">
@@ -3263,9 +3259,9 @@
       <c r="C308" s="3"/>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="15"/>
-      <c r="B309" s="14"/>
-      <c r="C309" s="14"/>
+      <c r="A309" s="14"/>
+      <c r="B309" s="13"/>
+      <c r="C309" s="13"/>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
@@ -3282,7 +3278,7 @@
       <c r="A311" s="4">
         <v>1</v>
       </c>
-      <c r="B311" s="13"/>
+      <c r="B311" s="12"/>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3">
@@ -3296,14 +3292,14 @@
       <c r="A313" s="4">
         <v>3</v>
       </c>
-      <c r="B313" s="13"/>
+      <c r="B313" s="12"/>
       <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="4">
         <v>4</v>
       </c>
-      <c r="B314" s="13"/>
+      <c r="B314" s="12"/>
       <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3">
@@ -3328,7 +3324,7 @@
       <c r="A318" s="4">
         <v>1</v>
       </c>
-      <c r="B318" s="13"/>
+      <c r="B318" s="12"/>
       <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3">
@@ -3342,14 +3338,14 @@
       <c r="A320" s="4">
         <v>3</v>
       </c>
-      <c r="B320" s="13"/>
+      <c r="B320" s="12"/>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="4">
         <v>4</v>
       </c>
-      <c r="B321" s="13"/>
+      <c r="B321" s="12"/>
       <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3">
@@ -3374,7 +3370,7 @@
       <c r="A325" s="4">
         <v>1</v>
       </c>
-      <c r="B325" s="13"/>
+      <c r="B325" s="12"/>
       <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3">
@@ -3388,14 +3384,14 @@
       <c r="A327" s="4">
         <v>3</v>
       </c>
-      <c r="B327" s="13"/>
+      <c r="B327" s="12"/>
       <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="4">
         <v>4</v>
       </c>
-      <c r="B328" s="13"/>
+      <c r="B328" s="12"/>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3">
@@ -3420,7 +3416,7 @@
       <c r="A332" s="4">
         <v>1</v>
       </c>
-      <c r="B332" s="13"/>
+      <c r="B332" s="12"/>
       <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3">
@@ -3434,14 +3430,14 @@
       <c r="A334" s="4">
         <v>3</v>
       </c>
-      <c r="B334" s="13"/>
+      <c r="B334" s="12"/>
       <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="4">
         <v>4</v>
       </c>
-      <c r="B335" s="13"/>
+      <c r="B335" s="12"/>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3">
@@ -3466,7 +3462,7 @@
       <c r="A339" s="4">
         <v>1</v>
       </c>
-      <c r="B339" s="13"/>
+      <c r="B339" s="12"/>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3">
@@ -3480,14 +3476,14 @@
       <c r="A341" s="4">
         <v>3</v>
       </c>
-      <c r="B341" s="13"/>
+      <c r="B341" s="12"/>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="4">
         <v>4</v>
       </c>
-      <c r="B342" s="13"/>
+      <c r="B342" s="12"/>
       <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3">
@@ -3512,7 +3508,7 @@
       <c r="A346" s="4">
         <v>1</v>
       </c>
-      <c r="B346" s="13"/>
+      <c r="B346" s="12"/>
       <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3">
@@ -3526,14 +3522,14 @@
       <c r="A348" s="4">
         <v>3</v>
       </c>
-      <c r="B348" s="13"/>
+      <c r="B348" s="12"/>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="4">
         <v>4</v>
       </c>
-      <c r="B349" s="13"/>
+      <c r="B349" s="12"/>
       <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:3">
@@ -3558,7 +3554,7 @@
       <c r="A353" s="4">
         <v>1</v>
       </c>
-      <c r="B353" s="13"/>
+      <c r="B353" s="12"/>
       <c r="C353" s="3"/>
     </row>
     <row r="354" spans="1:3">
@@ -3572,14 +3568,14 @@
       <c r="A355" s="4">
         <v>3</v>
       </c>
-      <c r="B355" s="13"/>
+      <c r="B355" s="12"/>
       <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="4">
         <v>4</v>
       </c>
-      <c r="B356" s="13"/>
+      <c r="B356" s="12"/>
       <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3">
@@ -3604,7 +3600,7 @@
       <c r="A360" s="4">
         <v>1</v>
       </c>
-      <c r="B360" s="13"/>
+      <c r="B360" s="12"/>
       <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3">
@@ -3618,14 +3614,14 @@
       <c r="A362" s="4">
         <v>3</v>
       </c>
-      <c r="B362" s="13"/>
+      <c r="B362" s="12"/>
       <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="4">
         <v>4</v>
       </c>
-      <c r="B363" s="13"/>
+      <c r="B363" s="12"/>
       <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3">
@@ -3636,7 +3632,7 @@
       <c r="C364" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="96">
   <si>
     <t>第1周计划看的论文</t>
   </si>
@@ -456,12 +456,30 @@
     <t>Yu L , Chen X , Gkioxari G , et al. Multi-Target Embodied Question Answering[J]. 2019.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Younes G , Asmar D , Shammas E , et al. Keyframe-based monocular SLAM: Design, survey, and future directions[J]. Robotics and Autonomous Systems, 2017:S0921889017300647.</t>
+  </si>
+  <si>
+    <t>Bayesian Map Learning in Dynamic Environments</t>
+  </si>
+  <si>
+    <t>Doucet A , De Freitas N , Murphy K , et al. Rao-Blackwellised Particle Filtering for Dynamic Bayesian Networks[J]. 2013.</t>
+  </si>
+  <si>
+    <t>Salas-Moreno R F , Newcombe R A , Strasdat H , et al. SLAM++: Simultaneous Localisation and Mapping at the Level of Objects[C]// Computer Vision and Pattern Recognition (CVPR), 2013 IEEE Conference on. IEEE, 2013.</t>
+  </si>
+  <si>
+    <t>Ji Z , Sanjiv S . Laser-visual-inertial odometry and mapping with high robustness and low drift[J]. Journal of Field Robotics, 2018.</t>
+  </si>
+  <si>
+    <t>Tong Q , Peiliang L , Shaojie S . VINS-Mono: A Robust and Versatile Monocular Visual-Inertial State Estimator[J]. IEEE Transactions on Robotics, 2018:1-17.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -556,6 +574,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -594,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +671,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1661,9 +1688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="16.5">
       <c r="A84" s="4">
         <v>5</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C84" s="11"/>
     </row>
@@ -2020,21 +2050,27 @@
       <c r="A124" s="4">
         <v>3</v>
       </c>
-      <c r="B124" s="12"/>
+      <c r="B124" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="4">
         <v>4</v>
       </c>
-      <c r="B125" s="12"/>
+      <c r="B125" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="4">
         <v>5</v>
       </c>
-      <c r="B126" s="3"/>
+      <c r="B126" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="C126" s="3"/>
     </row>
     <row r="128" spans="1:3">
@@ -2052,14 +2088,18 @@
       <c r="A129" s="4">
         <v>1</v>
       </c>
-      <c r="B129" s="12"/>
+      <c r="B129" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4">
         <v>2</v>
       </c>
-      <c r="B130" s="3"/>
+      <c r="B130" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3">

--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2068,10 +2068,12 @@
       <c r="A126" s="4">
         <v>5</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="B127" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C126" s="3"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">

--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\postgraduate\summary\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BCBE4-5FB6-45F6-98CB-CA66712DCFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
   <si>
     <t>第1周计划看的论文</t>
   </si>
@@ -447,12 +449,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Grisetti G , Stachniss C , Burgard W . Improving Grid-based SLAM with Rao-Blackwellized Particle Filters By Adaptive Proposals and Selective Resampling[C]// Proceedings of the 2005 IEEE International Conference on Robotics and Automation, ICRA 2005, April 18-22, 2005, Barcelona, Spain. IEEE, 2005.</t>
-  </si>
-  <si>
-    <t>Grisetti G , Stachniss C , Burgard W . Improved Techniques for Grid Mapping With Rao-Blackwellized Particle Filters[J]. IEEE Transactions on Robotics, 2007, 23(1):34-46.</t>
-  </si>
-  <si>
     <t>Yu L , Chen X , Gkioxari G , et al. Multi-Target Embodied Question Answering[J]. 2019.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -460,26 +456,70 @@
     <t>Younes G , Asmar D , Shammas E , et al. Keyframe-based monocular SLAM: Design, survey, and future directions[J]. Robotics and Autonomous Systems, 2017:S0921889017300647.</t>
   </si>
   <si>
+    <t>Salas-Moreno R F , Newcombe R A , Strasdat H , et al. SLAM++: Simultaneous Localisation and Mapping at the Level of Objects[C]// Computer Vision and Pattern Recognition (CVPR), 2013 IEEE Conference on. IEEE, 2013.</t>
+  </si>
+  <si>
+    <t>Grisetti G , Stachniss C , Burgard W . Improving Grid-based SLAM with Rao-Blackwellized Particle Filters By Adaptive Proposals and Selective Resampling[C]// Proceedings of the 2005 IEEE International Conference on Robotics and Automation, ICRA 2005, April 18-22, 2005, Barcelona, Spain. IEEE, 2005.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grisetti G , Stachniss C , Burgard W . Improved Techniques for Grid Mapping With Rao-Blackwellized Particle Filters[J]. IEEE Transactions on Robotics, 2007, 23(1):34-46.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>Bayesian Map Learning in Dynamic Environments</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Doucet A , De Freitas N , Murphy K , et al. Rao-Blackwellised Particle Filtering for Dynamic Bayesian Networks[J]. 2013.</t>
-  </si>
-  <si>
-    <t>Salas-Moreno R F , Newcombe R A , Strasdat H , et al. SLAM++: Simultaneous Localisation and Mapping at the Level of Objects[C]// Computer Vision and Pattern Recognition (CVPR), 2013 IEEE Conference on. IEEE, 2013.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Ji Z , Sanjiv S . Laser-visual-inertial odometry and mapping with high robustness and low drift[J]. Journal of Field Robotics, 2018.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Tong Q , Peiliang L , Shaojie S . VINS-Mono: A Robust and Versatile Monocular Visual-Inertial State Estimator[J]. IEEE Transactions on Robotics, 2018:1-17.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A review of visual inertial odometry from filtering and optimisation perspectives</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Review of Visual-Inertial Simultaneous Localization and Mapping from Filtering-Based and Optimization-Based Perspectives</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual SLAM and Structure from Motion in Dynamic Environments: A Survey</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>略看文献</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -580,6 +620,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -618,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +721,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,11 +1005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1228,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -1693,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C84" s="11"/>
     </row>
@@ -2028,39 +2083,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="16.5">
       <c r="A122" s="4">
         <v>1</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>87</v>
+      <c r="B122" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="16.5">
       <c r="A123" s="4">
         <v>2</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>88</v>
+      <c r="B123" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="16.5">
       <c r="A124" s="4">
         <v>3</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>91</v>
+      <c r="B124" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="16.5">
       <c r="A125" s="4">
         <v>4</v>
       </c>
-      <c r="B125" s="18" t="s">
-        <v>92</v>
+      <c r="B125" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C125" s="3"/>
     </row>
@@ -2072,7 +2127,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="B127" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2086,43 +2141,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" ht="16.5">
       <c r="A129" s="4">
         <v>1</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" ht="16.5">
       <c r="A130" s="4">
         <v>2</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" ht="16.5">
       <c r="A131" s="4">
         <v>3</v>
       </c>
-      <c r="B131" s="12"/>
+      <c r="B131" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" ht="16.5">
       <c r="A132" s="4">
         <v>4</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" ht="16.5">
       <c r="A133" s="4">
         <v>5</v>
       </c>
-      <c r="B133" s="3"/>
+      <c r="B133" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="C133" s="3"/>
     </row>
     <row r="135" spans="1:3">
@@ -3678,4 +3739,49 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F26AC4-0E65-4D9E-9F5C-1E5F7F72160F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="60.75" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BCBE4-5FB6-45F6-98CB-CA66712DCFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E976A4A9-668A-407B-BC24-FE008ECF61F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
   <si>
     <t>第1周计划看的论文</t>
   </si>
@@ -512,6 +512,46 @@
   </si>
   <si>
     <t>略看文献</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mei C , Rives P . Single View Point Omnidirectional Camera Calibration from Planar Grids[C]// 2007 IEEE International Conference on Robotics and Automation, ICRA 2007, 10-14 April 2007, Roma, Italy. IEEE, 2007.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furgale P , Rehder J , Siegwart R . Unified temporal and spatial calibration for multi-sensor systems[C]// IEEE/RSJ International Conference on Intelligent Robots &amp; Systems. IEEE, 2013.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qin, Tong, Shen, Shaojie. Online Temporal Calibration for Monocular Visual-Inertial Systems[J].</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Efficient Solution to the Five-Point Relative Pose Problem</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robust Initialization of Monocular Visual-Inertial Estimation on Aerial Robots</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21周计划看的论文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周计划看的论文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23周计划看的论文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24周计划看的论文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第25周计划看的论文</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1008,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1684,6 +1724,9 @@
       <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>35</v>
+      </c>
       <c r="B78">
         <v>35</v>
       </c>
@@ -2197,44 +2240,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" ht="16.5">
       <c r="A136" s="4">
         <v>1</v>
       </c>
-      <c r="B136" s="12"/>
+      <c r="B136" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" ht="16.5">
       <c r="A137" s="4">
         <v>2</v>
       </c>
-      <c r="B137" s="3"/>
+      <c r="B137" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" ht="16.5">
       <c r="A138" s="4">
         <v>3</v>
       </c>
-      <c r="B138" s="12"/>
+      <c r="B138" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" ht="16.5">
       <c r="A139" s="4">
         <v>4</v>
       </c>
-      <c r="B139" s="12"/>
+      <c r="B139" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" ht="16.5">
       <c r="A140" s="4">
         <v>5</v>
       </c>
-      <c r="B140" s="3"/>
+      <c r="B140" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="C140" s="3"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -2280,7 +2333,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>1</v>
@@ -2326,7 +2379,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>1</v>
@@ -2372,7 +2425,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>1</v>
@@ -2423,7 +2476,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>1</v>
@@ -3745,7 +3798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F26AC4-0E65-4D9E-9F5C-1E5F7F72160F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3783,5 +3836,6 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/weekly/周报文献列表.xlsx
+++ b/weekly/周报文献列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E976A4A9-668A-407B-BC24-FE008ECF61F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C60906F-5BB4-41D5-BB59-53AFBA007A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK10" localSheetId="0">Sheet1!$B$146</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="119">
   <si>
     <t>第1周计划看的论文</t>
   </si>
@@ -552,6 +555,26 @@
   </si>
   <si>
     <t>第25周计划看的论文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li P , Qin T , Hu B , et al. Monocular Visual-Inertial State Estimation for Mobile Augmented Reality[C]// IEEE International Symposium on Mixed &amp; Augmented Reality. IEEE Computer Society, 2017.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qin T , Li P , Shen S . Relocalization, Global Optimization and Map Merging for Monocular Visual-Inertial SLAM[J]. 2018.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shen S , Michael N , Kumar V . Tightly-coupled monocular visual-inertial fusion for autonomous flight of rotorcraft MAVs[J]. Proceedings IEEE International Conference on Robotics &amp; Automation, 2015, 2015:5303-5310.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Sample Consensus: A Paradigm for Model Fitting with Apphcatlons to Image Analysis and Automated Cartography</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raúl Mur-Artal, Juan D. Tardós. Visual-Inertial Monocular SLAM With Map Reuse[J]. IEEE Robotics and Automation Letters, 2017, 2(2):796-803.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1048,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="B130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2296,39 +2319,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" ht="16.5">
       <c r="A143" s="4">
         <v>1</v>
       </c>
-      <c r="B143" s="12"/>
+      <c r="B143" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" ht="16.5">
       <c r="A144" s="4">
         <v>2</v>
       </c>
-      <c r="B144" s="3"/>
+      <c r="B144" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" ht="16.5">
       <c r="A145" s="4">
         <v>3</v>
       </c>
-      <c r="B145" s="12"/>
+      <c r="B145" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" ht="16.5">
       <c r="A146" s="4">
         <v>4</v>
       </c>
-      <c r="B146" s="12"/>
+      <c r="B146" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" ht="16.5">
       <c r="A147" s="4">
         <v>5</v>
       </c>
-      <c r="B147" s="3"/>
+      <c r="B147" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="C147" s="3"/>
     </row>
     <row r="149" spans="1:3">
